--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -10,7 +10,20 @@
     <sheet name="填写说明" sheetId="3" r:id="rId1"/>
     <sheet name="程序版本更新记录表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -138,10 +151,10 @@
     <t>具体说明</t>
   </si>
   <si>
-    <t>TPF4220-SP.J4.BZ.100.20190906.hex</t>
+    <t>RY-T01.CONTROL.JTAG.BZ.100.20240303.hex</t>
   </si>
   <si>
-    <t>1.0.0.20190906</t>
+    <t>1.0.0.20240303</t>
   </si>
   <si>
     <t>项目升级</t>
@@ -150,12 +163,7 @@
     <t>根据需求新增固件初始版本</t>
   </si>
   <si>
-    <t>1、新增PT100温度采集校准功能
-2、新增全压静压动压采集校准功能
-3、新增皮托管风速测量校准功能
-4、新增定时反吹控制功能
-5、新增温度、静压、全压、风速4-20mA模拟量输出功能
-6、新增与主机485通讯功能，支持255广播，ID设置，参数设置，掉电保存。</t>
+    <t>完成需求功能，生成初始版本</t>
   </si>
   <si>
     <t>邓亨礼</t>
@@ -164,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -830,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -854,9 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1771,7 +1776,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>476250</xdr:rowOff>
         </xdr:to>
@@ -1788,8 +1793,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10495280" y="786765"/>
-              <a:ext cx="0" cy="276225"/>
+              <a:off x="11504295" y="786765"/>
+              <a:ext cx="0" cy="257175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1907,7 +1912,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>476250</xdr:rowOff>
         </xdr:to>
@@ -1924,8 +1929,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10495280" y="2044065"/>
-              <a:ext cx="0" cy="276225"/>
+              <a:off x="11504295" y="1243965"/>
+              <a:ext cx="0" cy="231775"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2367,15 +2372,15 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="3.12962962962963" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.2592592592593" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.12962962962963" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.1018518518519" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.1296296296296" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.8796296296296" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.287037037037" style="2" customWidth="1"/>
@@ -2424,10 +2429,10 @@
       <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -2447,11 +2452,11 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="99" customHeight="1" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:11">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2464,36 +2469,36 @@
       <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11">
-        <v>43714</v>
+      <c r="G4" s="10">
+        <v>45354</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="14"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="13"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="14"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" s="1" customFormat="1"/>
     <row r="7" s="1" customFormat="1"/>
@@ -2589,7 +2594,7 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>476250</xdr:rowOff>
                   </to>
@@ -2611,7 +2616,7 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>476250</xdr:rowOff>
                   </to>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -167,6 +167,41 @@
   </si>
   <si>
     <t>邓亨礼</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.101.20240317.hex</t>
+  </si>
+  <si>
+    <t>1.0.0.20240317</t>
+  </si>
+  <si>
+    <t>功能优化</t>
+  </si>
+  <si>
+    <t>修改测试问题与新增界面</t>
+  </si>
+  <si>
+    <t>1、修改湿度校准处理，显示值=实测值-校准值。实测值&lt;校准值时显示值=0
+2、增加高级配置界面
+3、相对湿度 和 绝对湿度转换
+4、增加pt100-1温度采集，联动控制加热棒，大于80°时，关闭加热棒（D_OUT2）；小于70°时开启加热棒
+5、按最新原理图调整端子对应关系</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.101.20240318.hex</t>
+  </si>
+  <si>
+    <t>1.0.0.20240318</t>
+  </si>
+  <si>
+    <t>修改测试问题</t>
+  </si>
+  <si>
+    <t>修改测试问题：
+1、PT100管脚与串口管脚冲突，导致温度采集不到
+2、反吹气压力模拟量采集不对
+3、湿度校零处理
+4、湿度绝对湿度范围限制</t>
   </si>
 </sst>
 </file>
@@ -863,11 +898,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,6 +980,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
@@ -1793,8 +1832,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11504295" y="786765"/>
-              <a:ext cx="0" cy="257175"/>
+              <a:off x="11382375" y="786765"/>
+              <a:ext cx="0" cy="193675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1929,8 +1968,144 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11504295" y="1243965"/>
-              <a:ext cx="0" cy="231775"/>
+              <a:off x="11382375" y="1180465"/>
+              <a:ext cx="0" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11382375" y="2285365"/>
+              <a:ext cx="0" cy="276225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2371,18 +2546,18 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="3.12962962962963" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.1018518518519" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.1296296296296" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.8796296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.8888888888889" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.287037037037" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
@@ -2456,7 +2631,7 @@
       <c r="J3" s="12"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="31" customHeight="1" spans="1:11">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2469,38 +2644,80 @@
       <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>45354</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="87" customHeight="1" spans="1:11">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45368</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1" ht="62" customHeight="1" spans="1:11">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="11">
+        <v>45369</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="13"/>
+    </row>
     <row r="7" s="1" customFormat="1"/>
     <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1"/>
@@ -2569,7 +2786,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2625,6 +2842,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" name="Check Box 49" r:id="rId5">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -202,6 +202,19 @@
 2、反吹气压力模拟量采集不对
 3、湿度校零处理
 4、湿度绝对湿度范围限制</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.101.20240328.hex</t>
+  </si>
+  <si>
+    <t>1.0.0.20240328</t>
+  </si>
+  <si>
+    <t>功能完善</t>
+  </si>
+  <si>
+    <t>1、在主界面中增加湿度频率显示
+2、增加B类型湿度采集</t>
   </si>
 </sst>
 </file>
@@ -987,6 +1000,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2106,6 +2123,142 @@
             <a:xfrm>
               <a:off x="11382375" y="2285365"/>
               <a:ext cx="0" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11382375" y="3072765"/>
+              <a:ext cx="0" cy="193675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2547,7 +2700,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2718,7 +2871,35 @@
       <c r="J6" s="6"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1" ht="31" customHeight="1" spans="1:11">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="11">
+        <v>45379</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="13"/>
+    </row>
     <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1"/>
@@ -2786,7 +2967,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2864,6 +3045,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" name="Check Box 50" r:id="rId6">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -215,6 +215,16 @@
   <si>
     <t>1、在主界面中增加湿度频率显示
 2、增加B类型湿度采集</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.102.20240329.hex</t>
+  </si>
+  <si>
+    <t>1.0.0.20240329</t>
+  </si>
+  <si>
+    <t>1、湿度频率-湿度分段值可通过modbus设置
+2、调整动压-风速计算，小于0.5Pa为0，0.5Pa到1Pa为0到0.5随机值，1Pa以上正常计算</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1014,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2259,6 +2273,142 @@
             <a:xfrm>
               <a:off x="11382375" y="3072765"/>
               <a:ext cx="0" cy="193675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11382375" y="3466465"/>
+              <a:ext cx="0" cy="276225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2700,7 +2850,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2900,7 +3050,35 @@
       <c r="J7" s="6"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" s="1" customFormat="1"/>
+    <row r="8" s="1" customFormat="1" ht="40" customHeight="1" spans="1:11">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="11">
+        <v>45380</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="13"/>
+    </row>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1"/>
     <row r="11" s="1" customFormat="1"/>
@@ -2967,7 +3145,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3067,6 +3245,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" name="Check Box 51" r:id="rId7">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -217,14 +217,15 @@
 2、增加B类型湿度采集</t>
   </si>
   <si>
-    <t>RY-T01.CONTROL.JTAG.BZ.102.20240329.hex</t>
-  </si>
-  <si>
-    <t>1.0.0.20240329</t>
+    <t>RY-T01.CONTROL.JTAG.BZ.102.20240330.hex</t>
+  </si>
+  <si>
+    <t>1.0.0.20240330</t>
   </si>
   <si>
     <t>1、湿度频率-湿度分段值可通过modbus设置
-2、调整动压-风速计算，小于0.5Pa为0，0.5Pa到1Pa为0到0.5随机值，1Pa以上正常计算</t>
+2、调整动压-风速计算，小于0.5Pa为0，0.5Pa到1Pa为0到0.5随机值，1Pa以上正常计算
+3、远程调试，解决以下问题：串口不能通讯、反吹气压力计算、压力界面显示单位与modbus不一致</t>
   </si>
 </sst>
 </file>
@@ -2850,7 +2851,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3050,7 +3051,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="40" customHeight="1" spans="1:11">
+    <row r="8" s="1" customFormat="1" ht="70" customHeight="1" spans="1:11">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="11">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>23</v>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -226,6 +226,15 @@
     <t>1、湿度频率-湿度分段值可通过modbus设置
 2、调整动压-风速计算，小于0.5Pa为0，0.5Pa到1Pa为0到0.5随机值，1Pa以上正常计算
 3、远程调试，解决以下问题：串口不能通讯、反吹气压力计算、压力界面显示单位与modbus不一致</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.103.20240425.hex</t>
+  </si>
+  <si>
+    <t>1.0.0.20240425</t>
+  </si>
+  <si>
+    <t>1、修改DAC输出补偿不起作用问题</t>
   </si>
 </sst>
 </file>
@@ -1019,6 +1028,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2410,6 +2423,142 @@
             <a:xfrm>
               <a:off x="11382375" y="3466465"/>
               <a:ext cx="0" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11382375" y="4355465"/>
+              <a:ext cx="0" cy="180975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2850,8 +2999,8 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3080,7 +3229,35 @@
       <c r="J8" s="6"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45407</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="13"/>
+    </row>
     <row r="10" s="1" customFormat="1"/>
     <row r="11" s="1" customFormat="1"/>
     <row r="12" s="1" customFormat="1"/>
@@ -3146,7 +3323,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3268,6 +3445,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" name="Check Box 52" r:id="rId8">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="10740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -154,7 +154,7 @@
     <t>RY-T01.CONTROL.JTAG.BZ.100.20240303.hex</t>
   </si>
   <si>
-    <t>1.0.0.20240303</t>
+    <t>100.20240303</t>
   </si>
   <si>
     <t>项目升级</t>
@@ -172,7 +172,7 @@
     <t>RY-T01.CONTROL.JTAG.BZ.101.20240317.hex</t>
   </si>
   <si>
-    <t>1.0.0.20240317</t>
+    <t>101.20240317</t>
   </si>
   <si>
     <t>功能优化</t>
@@ -191,7 +191,7 @@
     <t>RY-T01.CONTROL.JTAG.BZ.101.20240318.hex</t>
   </si>
   <si>
-    <t>1.0.0.20240318</t>
+    <t>101.20240318</t>
   </si>
   <si>
     <t>修改测试问题</t>
@@ -207,7 +207,7 @@
     <t>RY-T01.CONTROL.JTAG.BZ.101.20240328.hex</t>
   </si>
   <si>
-    <t>1.0.0.20240328</t>
+    <t>101.20240328</t>
   </si>
   <si>
     <t>功能完善</t>
@@ -220,7 +220,7 @@
     <t>RY-T01.CONTROL.JTAG.BZ.102.20240330.hex</t>
   </si>
   <si>
-    <t>1.0.0.20240330</t>
+    <t>102.20240330</t>
   </si>
   <si>
     <t>1、湿度频率-湿度分段值可通过modbus设置
@@ -231,10 +231,20 @@
     <t>RY-T01.CONTROL.JTAG.BZ.103.20240425.hex</t>
   </si>
   <si>
-    <t>1.0.0.20240425</t>
+    <t>103.20240425</t>
   </si>
   <si>
     <t>1、修改DAC输出补偿不起作用问题</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.104.20240722.hex</t>
+  </si>
+  <si>
+    <t>104.20240722</t>
+  </si>
+  <si>
+    <t>1、去掉主界面反吹压力显示
+2、去掉设备状态菜单选项</t>
   </si>
 </sst>
 </file>
@@ -1032,6 +1042,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1063,8 +1077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2596515"/>
-          <a:ext cx="10492740" cy="1617345"/>
+          <a:off x="0" y="2530475"/>
+          <a:ext cx="10687050" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,8 +1124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524250" y="259080"/>
-          <a:ext cx="3114675" cy="596265"/>
+          <a:off x="3581400" y="254000"/>
+          <a:ext cx="3171825" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,8 +1162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1064895" y="2306955"/>
-          <a:ext cx="1158240" cy="443865"/>
+          <a:off x="1076325" y="2251075"/>
+          <a:ext cx="1181100" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1209,8 +1223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85725" y="4327525"/>
-          <a:ext cx="1196340" cy="751205"/>
+          <a:off x="85725" y="4215765"/>
+          <a:ext cx="1219200" cy="730885"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1270,8 +1284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3686175" y="4328160"/>
-          <a:ext cx="1906905" cy="617220"/>
+          <a:off x="3743325" y="4216400"/>
+          <a:ext cx="1952625" cy="596900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1404,8 +1418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1710690" y="4271010"/>
-          <a:ext cx="1565910" cy="933450"/>
+          <a:off x="1733550" y="4159250"/>
+          <a:ext cx="1600200" cy="908050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1527,8 +1541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5716905" y="4560570"/>
-          <a:ext cx="3541395" cy="1731010"/>
+          <a:off x="5819775" y="4438650"/>
+          <a:ext cx="3609975" cy="1685290"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1640,8 +1654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7911465" y="1760220"/>
-          <a:ext cx="1964055" cy="855345"/>
+          <a:off x="8048625" y="1714500"/>
+          <a:ext cx="2009140" cy="835025"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1763,8 +1777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9448800" y="4318635"/>
-          <a:ext cx="1167765" cy="1367790"/>
+          <a:off x="9620250" y="4206875"/>
+          <a:ext cx="1190625" cy="1327150"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1877,7 +1891,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11382375" y="786765"/>
+              <a:off x="11593195" y="822325"/>
               <a:ext cx="0" cy="193675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2013,7 +2027,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11382375" y="1180465"/>
+              <a:off x="11593195" y="1216025"/>
               <a:ext cx="0" cy="276225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2149,7 +2163,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11382375" y="2285365"/>
+              <a:off x="11593195" y="2574925"/>
               <a:ext cx="0" cy="276225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2285,7 +2299,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11382375" y="3072765"/>
+              <a:off x="11593195" y="3514725"/>
               <a:ext cx="0" cy="193675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2421,7 +2435,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11382375" y="3466465"/>
+              <a:off x="11593195" y="3908425"/>
               <a:ext cx="0" cy="276225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2557,7 +2571,143 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11382375" y="4355465"/>
+              <a:off x="11593195" y="4822825"/>
+              <a:ext cx="0" cy="180975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11593195" y="5203825"/>
               <a:ext cx="0" cy="180975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2959,7 +3109,7 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
@@ -2999,27 +3149,27 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.12962962962963" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7777777777778" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.12727272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7818181818182" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.77777777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" style="2" customWidth="1"/>
-    <col min="6" max="6" width="51.8888888888889" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.287037037037" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.78181818181818" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.8909090909091" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.8909090909091" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.2909090909091" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3796296296296" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.3818181818182" style="2" customWidth="1"/>
     <col min="11" max="11" width="5" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" spans="1:11">
+    <row r="1" ht="23" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -3113,7 +3263,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="87" customHeight="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="107" customHeight="1" spans="1:11">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3142,7 +3292,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="62" customHeight="1" spans="1:11">
+    <row r="6" s="1" customFormat="1" ht="74" customHeight="1" spans="1:11">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3200,7 +3350,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="70" customHeight="1" spans="1:11">
+    <row r="8" s="1" customFormat="1" ht="72" customHeight="1" spans="1:11">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -3258,7 +3408,35 @@
       <c r="J9" s="6"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11">
+        <v>45495</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="13"/>
+    </row>
     <row r="11" s="1" customFormat="1"/>
     <row r="12" s="1" customFormat="1"/>
     <row r="13" s="1" customFormat="1"/>
@@ -3323,7 +3501,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9 D10">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3467,6 +3645,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" name="Check Box 53" r:id="rId9">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -245,6 +245,15 @@
   <si>
     <t>1、去掉主界面反吹压力显示
 2、去掉设备状态菜单选项</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.105.20240723.hex</t>
+  </si>
+  <si>
+    <t>105.20240723</t>
+  </si>
+  <si>
+    <t>1、压力传感器采集设置为32768x过采样</t>
   </si>
 </sst>
 </file>
@@ -1043,6 +1052,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
@@ -2815,6 +2828,142 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11593195" y="5584825"/>
+              <a:ext cx="0" cy="180975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3150,7 +3299,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3437,7 +3586,35 @@
       <c r="J10" s="6"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="11">
+        <v>45496</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="13"/>
+    </row>
     <row r="12" s="1" customFormat="1"/>
     <row r="13" s="1" customFormat="1"/>
     <row r="14" s="1" customFormat="1"/>
@@ -3501,7 +3678,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9 D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9 D10 D11">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3667,6 +3844,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" name="Check Box 54" r:id="rId10">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10740" activeTab="1"/>
+    <workbookView windowWidth="20850" windowHeight="10740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -255,6 +255,66 @@
   <si>
     <t>1、压力传感器采集设置为32768x过采样</t>
   </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.107.20240819.hex</t>
+  </si>
+  <si>
+    <t>107.20240819</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、截面积保留小数点后三位例:11.111
+2、皮托管反吹时电磁阀2一直得电(增加)，原逻辑不变。反时吹的流速跟压力保持不变或0值，反吹结束后间隔 3s 再恢复正常
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、解决自动校零校准不了问题，增加自动校准间隔时间设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4、压力模拟量输出(量程-5000-5000pa，4-20mA)，目前 opa 对应 4mA，改成-5000pa对应4mA，opa对应12mA，5000pa对应20mA.
+5、界面刷新 3s一次
+6、解决菜单界面显示多了“反吹间隔时间”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7、解决定时反吹控制不了问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8、修改湿度计算</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +326,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,14 +494,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000CC"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000CC"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1056,6 +1124,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
@@ -2964,6 +3036,142 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11593195" y="5965825"/>
+              <a:ext cx="0" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3298,8 +3506,8 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3615,7 +3823,35 @@
       <c r="J11" s="6"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" s="1" customFormat="1"/>
+    <row r="12" s="1" customFormat="1" ht="137" customHeight="1" spans="1:11">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="11">
+        <v>45523</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="13"/>
+    </row>
     <row r="13" s="1" customFormat="1"/>
     <row r="14" s="1" customFormat="1"/>
     <row r="15" s="1" customFormat="1"/>
@@ -3678,7 +3914,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9 D10 D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D4:D11">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3866,6 +4102,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" name="Check Box 55" r:id="rId11">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="10740" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="10740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -255,66 +255,6 @@
   <si>
     <t>1、压力传感器采集设置为32768x过采样</t>
   </si>
-  <si>
-    <t>RY-T01.CONTROL.JTAG.BZ.107.20240819.hex</t>
-  </si>
-  <si>
-    <t>107.20240819</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1、截面积保留小数点后三位例:11.111
-2、皮托管反吹时电磁阀2一直得电(增加)，原逻辑不变。反时吹的流速跟压力保持不变或0值，反吹结束后间隔 3s 再恢复正常
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3、解决自动校零校准不了问题，增加自动校准间隔时间设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4、压力模拟量输出(量程-5000-5000pa，4-20mA)，目前 opa 对应 4mA，改成-5000pa对应4mA，opa对应12mA，5000pa对应20mA.
-5、界面刷新 3s一次
-6、解决菜单界面显示多了“反吹间隔时间”
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7、解决定时反吹控制不了问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-8、修改湿度计算</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -326,7 +266,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,22 +434,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF0000CC"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000CC"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1124,10 +1056,6 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
@@ -3036,142 +2964,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>476250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1079"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11593195" y="5965825"/>
-              <a:ext cx="0" cy="276225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l" rtl="0"/>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                </a:rPr>
-                <a:t>否</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3506,8 +3298,8 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3823,35 +3615,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="137" customHeight="1" spans="1:11">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="11">
-        <v>45523</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="13"/>
-    </row>
+    <row r="12" s="1" customFormat="1"/>
     <row r="13" s="1" customFormat="1"/>
     <row r="14" s="1" customFormat="1"/>
     <row r="15" s="1" customFormat="1"/>
@@ -3914,7 +3678,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D4:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9 D10 D11">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4102,28 +3866,6 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1079" name="Check Box 55" r:id="rId11">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>476250</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -254,6 +254,20 @@
   </si>
   <si>
     <t>1、压力传感器采集设置为32768x过采样</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.110.20241026.hex
+RY-T01.CONTROL.JTAG.DZ.110.20241026.hex</t>
+  </si>
+  <si>
+    <t>110.20241026</t>
+  </si>
+  <si>
+    <t>BZ版本：修改流速校准倒计时时长为60s
+DZ版本：
+1、修改流速校准倒计时时长为60s
+2、修改温度、压力 模拟量输出量程
+3、主界面显示去掉湿度相关数据</t>
   </si>
 </sst>
 </file>
@@ -925,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -955,6 +969,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,6 +1073,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
@@ -2964,6 +2985,142 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11593195" y="5965825"/>
+              <a:ext cx="0" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3298,8 +3455,8 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3356,10 +3513,10 @@
       <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -3379,8 +3536,8 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="31" customHeight="1" spans="1:11">
@@ -3410,7 +3567,7 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="107" customHeight="1" spans="1:11">
       <c r="A5" s="6">
@@ -3439,7 +3596,7 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="74" customHeight="1" spans="1:11">
       <c r="A6" s="6">
@@ -3468,7 +3625,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="31" customHeight="1" spans="1:11">
       <c r="A7" s="6">
@@ -3497,7 +3654,7 @@
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="72" customHeight="1" spans="1:11">
       <c r="A8" s="6">
@@ -3526,7 +3683,7 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A9" s="6">
@@ -3555,7 +3712,7 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A10" s="6">
@@ -3584,7 +3741,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A11" s="6">
@@ -3613,9 +3770,37 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="14"/>
     </row>
-    <row r="12" s="1" customFormat="1"/>
+    <row r="12" s="1" customFormat="1" ht="68" customHeight="1" spans="1:11">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="11">
+        <v>45591</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="14"/>
+    </row>
     <row r="13" s="1" customFormat="1"/>
     <row r="14" s="1" customFormat="1"/>
     <row r="15" s="1" customFormat="1"/>
@@ -3678,7 +3863,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9 D10 D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D4:D11">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3866,6 +4051,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" name="Check Box 55" r:id="rId11">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
+++ b/程序源码/RY-T01/firmware/RY-T01 程序版本变更记录表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>1、每个程序包输出一份《程序版本变更记录表》；</t>
   </si>
@@ -268,6 +268,15 @@
 1、修改流速校准倒计时时长为60s
 2、修改温度、压力 模拟量输出量程
 3、主界面显示去掉湿度相关数据</t>
+  </si>
+  <si>
+    <t>RY-T01.CONTROL.JTAG.BZ.111.20241031.hex</t>
+  </si>
+  <si>
+    <t>111.20241031</t>
+  </si>
+  <si>
+    <t>1、修改流量计算公式，从湿烟气流量改为干烟气流量</t>
   </si>
 </sst>
 </file>
@@ -448,14 +457,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000CC"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000CC"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1045,6 +1054,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
@@ -3121,6 +3134,142 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11593195" y="6829425"/>
+              <a:ext cx="0" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" anchor="ctr" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                </a:rPr>
+                <a:t>否</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3455,8 +3604,8 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3801,7 +3950,35 @@
       <c r="J12" s="6"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" s="1" customFormat="1"/>
+    <row r="13" s="1" customFormat="1" ht="38" customHeight="1" spans="1:11">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="11">
+        <v>45596</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="14"/>
+    </row>
     <row r="14" s="1" customFormat="1"/>
     <row r="15" s="1" customFormat="1"/>
     <row r="16" s="1" customFormat="1"/>
@@ -3863,7 +4040,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D4:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D4:D12">
       <formula1>"功能优化,BUG修复,项目升级"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4073,6 +4250,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" name="Check Box 56" r:id="rId12">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>476250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
